--- a/Project1 HLR_TestCase_TestScenario_Defect.xlsx
+++ b/Project1 HLR_TestCase_TestScenario_Defect.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\Tops Project\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\MANUAL Testing\Project\Project1\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2116" uniqueCount="495">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2104" uniqueCount="474">
   <si>
     <t>Functionality ID</t>
   </si>
@@ -1888,76 +1888,13 @@
     <t>Functionality,GUI</t>
   </si>
   <si>
+    <t>Functionality, GUI</t>
+  </si>
+  <si>
     <t>https://drive.google.com/file/d/1sHAsgJEYtS-_KFBnE7NspqgcUjqZywgG/view?usp=sharing</t>
   </si>
   <si>
     <t>https://drive.google.com/file/d/1MWxD8CxciwqJ7u24TYx9bw5AOjBsgb1w/view?usp=sharing</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/file/d/1PJ8SeHozAWV-Ie3NH9o1gCGsiMhXWdZb/view?usp=sharing</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/file/d/1xSluiyLOIGumoKhYjtNKzCLroPQdUa0T/view?usp=sharing</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/file/d/1ad7hXasyB0ZLW4Gqdh2qQ8XLhvufW-jj/view?usp=sharing</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://drive.google.com/file/d/1mFXwGp-Gnce0Q3-BWDOqefeY3SNGQ0iL/view?usp=sharing </t>
-  </si>
-  <si>
-    <t>https://drive.google.com/file/d/1uBsUH2KfDJnTTEfECEHtaeG_ZUhGycFT/view?usp=sharing</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/file/d/12bihPuCgqO4oLhBSuX8RdD8Skt0qpZjC/view?usp=sharing</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/file/d/182Aki_i8FjKfixDmg1G5_0fH-0QpJJRQ/view?usp=sharing</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/file/d/1Mg5QMQ6FIFTBaLBHD3u_0NrFjB_NNgMM/view?usp=sharing</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/file/d/1WzQ0oZqV4ZexzZSxpI3tUoVTKpIcptDr/view?usp=sharing</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/file/d/1giONsBclF33rih4D5dmxSAHi1Lj4BM_q/view?usp=sharing</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://drive.google.com/file/d/128YwcM67btUgDAJeVWve1jq-CMuyhYil/view?usp=sharing </t>
-  </si>
-  <si>
-    <t>https://drive.google.com/file/d/1TLzfPnKox2ryU7aKhOxWF3jzF4pljSY9/view?usp=sharing</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/file/d/15jfV78lzN9jaqWrH8bX0WZGHraUwVbDq/view?usp=sharing</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/file/d/1zIjhwn2aNyCPaKa0Hc81FIlQ4Ilg59kq/view?usp=sharing</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/file/d/1NE-UTOythcprSMhY8zwhDLpKftLsWODX/view?usp=sharing</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/file/d/1RAf_CZ0hFr10rEpyCDQ0JFnn-faRDO64/view?usp=sharing</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/file/d/1aQBBhMjJaWPgCym4JTLtTqy_3nM4DovQ/view?usp=sharing</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/file/d/1RT9MZoVmqJ9B50mnJZTs7jzmxVWzVWz6/view?usp=sharing</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/file/d/1GdIBsZImE17p0JpGmJ5r3EIENFtiTWpN/view?usp=sharing</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/file/d/1UggYSlgoy8wyXpfpPxEshOHf4adgeAJg/view?usp=sharing</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/file/d/1AOpvkhitQLYneuWZWkQBW9BCd0KHt77z/view?usp=sharing</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/file/d/1CweNfW608y2dauWjY4zesoUNFXOqJ74W/view?usp=sharing</t>
   </si>
 </sst>
 </file>
@@ -2124,7 +2061,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -2158,12 +2095,30 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="63">
+  <cellXfs count="65">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -2259,20 +2214,6 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2291,6 +2232,26 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -2652,11 +2613,11 @@
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="57" t="s">
+      <c r="A2" s="49" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="57"/>
-      <c r="C2" s="57"/>
+      <c r="B2" s="49"/>
+      <c r="C2" s="49"/>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="1">
@@ -2890,11 +2851,11 @@
       </c>
     </row>
     <row r="25" spans="1:3">
-      <c r="A25" s="57" t="s">
+      <c r="A25" s="49" t="s">
         <v>73</v>
       </c>
-      <c r="B25" s="58"/>
-      <c r="C25" s="58"/>
+      <c r="B25" s="50"/>
+      <c r="C25" s="50"/>
     </row>
     <row r="26" spans="1:3" s="5" customFormat="1">
       <c r="A26" s="4"/>
@@ -2916,11 +2877,11 @@
       <c r="C29" s="1"/>
     </row>
     <row r="31" spans="1:3">
-      <c r="A31" s="57" t="s">
+      <c r="A31" s="49" t="s">
         <v>72</v>
       </c>
-      <c r="B31" s="58"/>
-      <c r="C31" s="58"/>
+      <c r="B31" s="50"/>
+      <c r="C31" s="50"/>
     </row>
     <row r="33" spans="1:4">
       <c r="A33" s="2">
@@ -3122,11 +3083,11 @@
       </c>
     </row>
     <row r="53" spans="1:3">
-      <c r="A53" s="57" t="s">
+      <c r="A53" s="49" t="s">
         <v>74</v>
       </c>
-      <c r="B53" s="58"/>
-      <c r="C53" s="58"/>
+      <c r="B53" s="50"/>
+      <c r="C53" s="50"/>
     </row>
     <row r="55" spans="1:3" s="2" customFormat="1">
       <c r="A55" s="2">
@@ -3371,11 +3332,11 @@
       </c>
     </row>
     <row r="79" spans="1:3">
-      <c r="A79" s="57" t="s">
+      <c r="A79" s="49" t="s">
         <v>75</v>
       </c>
-      <c r="B79" s="58"/>
-      <c r="C79" s="58"/>
+      <c r="B79" s="50"/>
+      <c r="C79" s="50"/>
     </row>
     <row r="81" spans="1:3" s="2" customFormat="1">
       <c r="A81" s="2">
@@ -3609,11 +3570,11 @@
       </c>
     </row>
     <row r="105" spans="1:3">
-      <c r="A105" s="57" t="s">
+      <c r="A105" s="49" t="s">
         <v>76</v>
       </c>
-      <c r="B105" s="58"/>
-      <c r="C105" s="58"/>
+      <c r="B105" s="50"/>
+      <c r="C105" s="50"/>
     </row>
     <row r="107" spans="1:3" s="2" customFormat="1">
       <c r="A107" s="2">
@@ -6582,9 +6543,9 @@
         <v>338</v>
       </c>
       <c r="D99" s="25"/>
-      <c r="E99" s="59"/>
-      <c r="F99" s="60"/>
-      <c r="G99" s="60"/>
+      <c r="E99" s="51"/>
+      <c r="F99" s="52"/>
+      <c r="G99" s="52"/>
       <c r="H99" s="25"/>
       <c r="I99" s="25"/>
     </row>
@@ -7830,11 +7791,11 @@
     </row>
     <row r="144" spans="1:9" ht="24.6">
       <c r="A144" s="25"/>
-      <c r="B144" s="61" t="s">
+      <c r="B144" s="53" t="s">
         <v>75</v>
       </c>
-      <c r="C144" s="62"/>
-      <c r="D144" s="62"/>
+      <c r="C144" s="54"/>
+      <c r="D144" s="54"/>
       <c r="H144" s="25"/>
       <c r="I144" s="25"/>
     </row>
@@ -9083,11 +9044,11 @@
       <c r="B189" s="25"/>
       <c r="C189" s="25"/>
       <c r="D189" s="25"/>
-      <c r="E189" s="59" t="s">
+      <c r="E189" s="51" t="s">
         <v>76</v>
       </c>
-      <c r="F189" s="60"/>
-      <c r="G189" s="60"/>
+      <c r="F189" s="52"/>
+      <c r="G189" s="52"/>
       <c r="H189" s="25"/>
       <c r="I189" s="25"/>
     </row>
@@ -10756,7 +10717,7 @@
       </c>
     </row>
     <row r="23" spans="1:7" ht="15">
-      <c r="A23" s="50"/>
+      <c r="A23" s="56"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -10765,10 +10726,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M42"/>
+  <dimension ref="A1:M43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D22" workbookViewId="0">
-      <selection activeCell="L26" sqref="L26"/>
+    <sheetView tabSelected="1" topLeftCell="D2" workbookViewId="0">
+      <selection activeCell="L3" sqref="L3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -10785,44 +10746,44 @@
     <col min="13" max="13" width="16.8984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="34.799999999999997">
-      <c r="A1" s="49" t="s">
+    <row r="1" spans="1:13" ht="52.2">
+      <c r="A1" s="55" t="s">
         <v>450</v>
       </c>
-      <c r="B1" s="49" t="s">
+      <c r="B1" s="55" t="s">
         <v>451</v>
       </c>
-      <c r="C1" s="49" t="s">
+      <c r="C1" s="55" t="s">
         <v>452</v>
       </c>
-      <c r="D1" s="49" t="s">
+      <c r="D1" s="55" t="s">
         <v>453</v>
       </c>
-      <c r="E1" s="49" t="s">
+      <c r="E1" s="55" t="s">
         <v>82</v>
       </c>
-      <c r="F1" s="49" t="s">
+      <c r="F1" s="55" t="s">
         <v>454</v>
       </c>
-      <c r="G1" s="49" t="s">
+      <c r="G1" s="55" t="s">
         <v>455</v>
       </c>
-      <c r="H1" s="49" t="s">
+      <c r="H1" s="55" t="s">
         <v>456</v>
       </c>
-      <c r="I1" s="49" t="s">
+      <c r="I1" s="55" t="s">
         <v>457</v>
       </c>
-      <c r="J1" s="49" t="s">
+      <c r="J1" s="55" t="s">
         <v>458</v>
       </c>
-      <c r="K1" s="49" t="s">
+      <c r="K1" s="55" t="s">
         <v>459</v>
       </c>
-      <c r="L1" s="49" t="s">
+      <c r="L1" s="55" t="s">
         <v>460</v>
       </c>
-      <c r="M1" s="49" t="s">
+      <c r="M1" s="55" t="s">
         <v>461</v>
       </c>
     </row>
@@ -10842,13 +10803,13 @@
       <c r="E2" s="12" t="s">
         <v>94</v>
       </c>
-      <c r="F2" s="55" t="s">
+      <c r="F2" s="61" t="s">
         <v>465</v>
       </c>
-      <c r="G2" s="55" t="s">
+      <c r="G2" s="61" t="s">
         <v>466</v>
       </c>
-      <c r="H2" s="55" t="s">
+      <c r="H2" s="61" t="s">
         <v>466</v>
       </c>
       <c r="I2" s="12" t="s">
@@ -10857,13 +10818,13 @@
       <c r="J2" s="12" t="s">
         <v>96</v>
       </c>
-      <c r="K2" s="55" t="s">
+      <c r="K2" s="61" t="s">
         <v>467</v>
       </c>
-      <c r="L2" s="56" t="s">
-        <v>472</v>
-      </c>
-      <c r="M2" s="52" t="s">
+      <c r="L2" s="64" t="s">
+        <v>473</v>
+      </c>
+      <c r="M2" s="58" t="s">
         <v>464</v>
       </c>
     </row>
@@ -10883,13 +10844,13 @@
       <c r="E3" s="12" t="s">
         <v>99</v>
       </c>
-      <c r="F3" s="55" t="s">
+      <c r="F3" s="61" t="s">
         <v>465</v>
       </c>
-      <c r="G3" s="53" t="s">
+      <c r="G3" s="59" t="s">
         <v>466</v>
       </c>
-      <c r="H3" s="53" t="s">
+      <c r="H3" s="59" t="s">
         <v>466</v>
       </c>
       <c r="I3" s="12" t="s">
@@ -10898,13 +10859,10 @@
       <c r="J3" s="12" t="s">
         <v>101</v>
       </c>
-      <c r="K3" s="55" t="s">
+      <c r="K3" s="61" t="s">
         <v>467</v>
       </c>
-      <c r="L3" s="56" t="s">
-        <v>473</v>
-      </c>
-      <c r="M3" s="52" t="s">
+      <c r="M3" s="58" t="s">
         <v>464</v>
       </c>
     </row>
@@ -10924,13 +10882,13 @@
       <c r="E4" s="12" t="s">
         <v>103</v>
       </c>
-      <c r="F4" s="55" t="s">
+      <c r="F4" s="61" t="s">
         <v>465</v>
       </c>
-      <c r="G4" s="53" t="s">
+      <c r="G4" s="59" t="s">
         <v>466</v>
       </c>
-      <c r="H4" s="53" t="s">
+      <c r="H4" s="59" t="s">
         <v>466</v>
       </c>
       <c r="I4" s="12" t="s">
@@ -10939,13 +10897,10 @@
       <c r="J4" s="12" t="s">
         <v>104</v>
       </c>
-      <c r="K4" s="55" t="s">
+      <c r="K4" s="61" t="s">
         <v>467</v>
       </c>
-      <c r="L4" s="56" t="s">
-        <v>474</v>
-      </c>
-      <c r="M4" s="53" t="s">
+      <c r="M4" s="59" t="s">
         <v>464</v>
       </c>
     </row>
@@ -10965,13 +10920,13 @@
       <c r="E5" s="12" t="s">
         <v>106</v>
       </c>
-      <c r="F5" s="55" t="s">
+      <c r="F5" s="61" t="s">
         <v>465</v>
       </c>
-      <c r="G5" s="53" t="s">
+      <c r="G5" s="59" t="s">
         <v>466</v>
       </c>
-      <c r="H5" s="53" t="s">
+      <c r="H5" s="59" t="s">
         <v>466</v>
       </c>
       <c r="I5" s="12" t="s">
@@ -10980,13 +10935,13 @@
       <c r="J5" s="12" t="s">
         <v>107</v>
       </c>
-      <c r="K5" s="55" t="s">
+      <c r="K5" s="61" t="s">
         <v>467</v>
       </c>
-      <c r="L5" s="56" t="s">
-        <v>471</v>
-      </c>
-      <c r="M5" s="53" t="s">
+      <c r="L5" s="64" t="s">
+        <v>472</v>
+      </c>
+      <c r="M5" s="59" t="s">
         <v>464</v>
       </c>
     </row>
@@ -11006,13 +10961,13 @@
       <c r="E6" s="12" t="s">
         <v>109</v>
       </c>
-      <c r="F6" s="55" t="s">
+      <c r="F6" s="61" t="s">
         <v>465</v>
       </c>
-      <c r="G6" s="53" t="s">
+      <c r="G6" s="59" t="s">
         <v>466</v>
       </c>
-      <c r="H6" s="53" t="s">
+      <c r="H6" s="59" t="s">
         <v>466</v>
       </c>
       <c r="I6" s="12" t="s">
@@ -11021,13 +10976,10 @@
       <c r="J6" s="12" t="s">
         <v>110</v>
       </c>
-      <c r="K6" s="55" t="s">
+      <c r="K6" s="61" t="s">
         <v>467</v>
       </c>
-      <c r="L6" s="56" t="s">
-        <v>475</v>
-      </c>
-      <c r="M6" s="53" t="s">
+      <c r="M6" s="59" t="s">
         <v>464</v>
       </c>
     </row>
@@ -11047,13 +10999,13 @@
       <c r="E7" s="12" t="s">
         <v>113</v>
       </c>
-      <c r="F7" s="55" t="s">
+      <c r="F7" s="61" t="s">
         <v>465</v>
       </c>
-      <c r="G7" s="53" t="s">
+      <c r="G7" s="59" t="s">
         <v>466</v>
       </c>
-      <c r="H7" s="53" t="s">
+      <c r="H7" s="59" t="s">
         <v>466</v>
       </c>
       <c r="I7" s="12" t="s">
@@ -11062,13 +11014,10 @@
       <c r="J7" s="12" t="s">
         <v>107</v>
       </c>
-      <c r="K7" s="55" t="s">
+      <c r="K7" s="61" t="s">
         <v>467</v>
       </c>
-      <c r="L7" s="56" t="s">
-        <v>476</v>
-      </c>
-      <c r="M7" s="53" t="s">
+      <c r="M7" s="59" t="s">
         <v>464</v>
       </c>
     </row>
@@ -11088,13 +11037,13 @@
       <c r="E8" s="12" t="s">
         <v>115</v>
       </c>
-      <c r="F8" s="55" t="s">
+      <c r="F8" s="61" t="s">
         <v>465</v>
       </c>
-      <c r="G8" s="53" t="s">
+      <c r="G8" s="59" t="s">
         <v>466</v>
       </c>
-      <c r="H8" s="53" t="s">
+      <c r="H8" s="59" t="s">
         <v>466</v>
       </c>
       <c r="I8" s="12" t="s">
@@ -11103,13 +11052,10 @@
       <c r="J8" s="12" t="s">
         <v>110</v>
       </c>
-      <c r="K8" s="55" t="s">
+      <c r="K8" s="61" t="s">
         <v>467</v>
       </c>
-      <c r="L8" s="56" t="s">
-        <v>477</v>
-      </c>
-      <c r="M8" s="53" t="s">
+      <c r="M8" s="59" t="s">
         <v>464</v>
       </c>
     </row>
@@ -11129,13 +11075,13 @@
       <c r="E9" s="12" t="s">
         <v>117</v>
       </c>
-      <c r="F9" s="55" t="s">
+      <c r="F9" s="61" t="s">
         <v>465</v>
       </c>
-      <c r="G9" s="53" t="s">
+      <c r="G9" s="59" t="s">
         <v>466</v>
       </c>
-      <c r="H9" s="53" t="s">
+      <c r="H9" s="59" t="s">
         <v>466</v>
       </c>
       <c r="I9" s="12" t="s">
@@ -11144,13 +11090,10 @@
       <c r="J9" s="12" t="s">
         <v>118</v>
       </c>
-      <c r="K9" s="55" t="s">
+      <c r="K9" s="61" t="s">
         <v>467</v>
       </c>
-      <c r="L9" s="56" t="s">
-        <v>478</v>
-      </c>
-      <c r="M9" s="53" t="s">
+      <c r="M9" s="59" t="s">
         <v>464</v>
       </c>
     </row>
@@ -11170,13 +11113,13 @@
       <c r="E10" s="12" t="s">
         <v>120</v>
       </c>
-      <c r="F10" s="55" t="s">
+      <c r="F10" s="61" t="s">
         <v>465</v>
       </c>
-      <c r="G10" s="53" t="s">
+      <c r="G10" s="59" t="s">
         <v>466</v>
       </c>
-      <c r="H10" s="53" t="s">
+      <c r="H10" s="59" t="s">
         <v>466</v>
       </c>
       <c r="I10" s="12" t="s">
@@ -11185,13 +11128,10 @@
       <c r="J10" s="12" t="s">
         <v>118</v>
       </c>
-      <c r="K10" s="55" t="s">
+      <c r="K10" s="61" t="s">
         <v>467</v>
       </c>
-      <c r="L10" s="56" t="s">
-        <v>479</v>
-      </c>
-      <c r="M10" s="54" t="s">
+      <c r="M10" s="60" t="s">
         <v>464</v>
       </c>
     </row>
@@ -11211,13 +11151,13 @@
       <c r="E11" s="12" t="s">
         <v>122</v>
       </c>
-      <c r="F11" s="55" t="s">
+      <c r="F11" s="61" t="s">
         <v>465</v>
       </c>
-      <c r="G11" s="53" t="s">
+      <c r="G11" s="59" t="s">
         <v>466</v>
       </c>
-      <c r="H11" s="53" t="s">
+      <c r="H11" s="59" t="s">
         <v>466</v>
       </c>
       <c r="I11" s="12" t="s">
@@ -11226,13 +11166,10 @@
       <c r="J11" s="12" t="s">
         <v>118</v>
       </c>
-      <c r="K11" s="55" t="s">
+      <c r="K11" s="61" t="s">
         <v>467</v>
       </c>
-      <c r="L11" s="56" t="s">
-        <v>480</v>
-      </c>
-      <c r="M11" s="53" t="s">
+      <c r="M11" s="59" t="s">
         <v>464</v>
       </c>
     </row>
@@ -11252,13 +11189,13 @@
       <c r="E12" s="12" t="s">
         <v>124</v>
       </c>
-      <c r="F12" s="55" t="s">
+      <c r="F12" s="61" t="s">
         <v>465</v>
       </c>
-      <c r="G12" s="53" t="s">
+      <c r="G12" s="59" t="s">
         <v>466</v>
       </c>
-      <c r="H12" s="53" t="s">
+      <c r="H12" s="59" t="s">
         <v>466</v>
       </c>
       <c r="I12" s="12" t="s">
@@ -11267,13 +11204,10 @@
       <c r="J12" s="12" t="s">
         <v>118</v>
       </c>
-      <c r="K12" s="55" t="s">
+      <c r="K12" s="61" t="s">
         <v>467</v>
       </c>
-      <c r="L12" s="56" t="s">
-        <v>481</v>
-      </c>
-      <c r="M12" s="53" t="s">
+      <c r="M12" s="59" t="s">
         <v>464</v>
       </c>
     </row>
@@ -11293,13 +11227,13 @@
       <c r="E13" s="12" t="s">
         <v>126</v>
       </c>
-      <c r="F13" s="55" t="s">
+      <c r="F13" s="61" t="s">
         <v>465</v>
       </c>
-      <c r="G13" s="53" t="s">
+      <c r="G13" s="59" t="s">
         <v>466</v>
       </c>
-      <c r="H13" s="53" t="s">
+      <c r="H13" s="59" t="s">
         <v>466</v>
       </c>
       <c r="I13" s="12" t="s">
@@ -11308,13 +11242,10 @@
       <c r="J13" s="12" t="s">
         <v>118</v>
       </c>
-      <c r="K13" s="55" t="s">
+      <c r="K13" s="61" t="s">
         <v>467</v>
       </c>
-      <c r="L13" s="56" t="s">
-        <v>482</v>
-      </c>
-      <c r="M13" s="53" t="s">
+      <c r="M13" s="59" t="s">
         <v>464</v>
       </c>
     </row>
@@ -11334,13 +11265,13 @@
       <c r="E14" s="12" t="s">
         <v>128</v>
       </c>
-      <c r="F14" s="55" t="s">
+      <c r="F14" s="61" t="s">
         <v>465</v>
       </c>
-      <c r="G14" s="53" t="s">
+      <c r="G14" s="59" t="s">
         <v>466</v>
       </c>
-      <c r="H14" s="53" t="s">
+      <c r="H14" s="59" t="s">
         <v>466</v>
       </c>
       <c r="I14" s="12" t="s">
@@ -11349,13 +11280,10 @@
       <c r="J14" s="12" t="s">
         <v>118</v>
       </c>
-      <c r="K14" s="55" t="s">
+      <c r="K14" s="61" t="s">
         <v>467</v>
       </c>
-      <c r="L14" s="56" t="s">
-        <v>483</v>
-      </c>
-      <c r="M14" s="53" t="s">
+      <c r="M14" s="59" t="s">
         <v>464</v>
       </c>
     </row>
@@ -11375,13 +11303,13 @@
       <c r="E15" s="12" t="s">
         <v>130</v>
       </c>
-      <c r="F15" s="55" t="s">
+      <c r="F15" s="61" t="s">
         <v>465</v>
       </c>
-      <c r="G15" s="53" t="s">
+      <c r="G15" s="59" t="s">
         <v>466</v>
       </c>
-      <c r="H15" s="53" t="s">
+      <c r="H15" s="59" t="s">
         <v>466</v>
       </c>
       <c r="I15" s="12" t="s">
@@ -11390,13 +11318,10 @@
       <c r="J15" s="12" t="s">
         <v>118</v>
       </c>
-      <c r="K15" s="55" t="s">
+      <c r="K15" s="61" t="s">
         <v>467</v>
       </c>
-      <c r="L15" s="56" t="s">
-        <v>484</v>
-      </c>
-      <c r="M15" s="53" t="s">
+      <c r="M15" s="59" t="s">
         <v>464</v>
       </c>
     </row>
@@ -11416,13 +11341,13 @@
       <c r="E16" s="12" t="s">
         <v>132</v>
       </c>
-      <c r="F16" s="55" t="s">
+      <c r="F16" s="61" t="s">
         <v>465</v>
       </c>
-      <c r="G16" s="53" t="s">
+      <c r="G16" s="59" t="s">
         <v>466</v>
       </c>
-      <c r="H16" s="53" t="s">
+      <c r="H16" s="59" t="s">
         <v>466</v>
       </c>
       <c r="I16" s="12" t="s">
@@ -11431,13 +11356,10 @@
       <c r="J16" s="12" t="s">
         <v>118</v>
       </c>
-      <c r="K16" s="55" t="s">
+      <c r="K16" s="61" t="s">
         <v>467</v>
       </c>
-      <c r="L16" s="56" t="s">
-        <v>485</v>
-      </c>
-      <c r="M16" s="53" t="s">
+      <c r="M16" s="59" t="s">
         <v>464</v>
       </c>
     </row>
@@ -11457,13 +11379,13 @@
       <c r="E17" s="12" t="s">
         <v>134</v>
       </c>
-      <c r="F17" s="55" t="s">
+      <c r="F17" s="61" t="s">
         <v>465</v>
       </c>
-      <c r="G17" s="53" t="s">
+      <c r="G17" s="59" t="s">
         <v>466</v>
       </c>
-      <c r="H17" s="53" t="s">
+      <c r="H17" s="59" t="s">
         <v>466</v>
       </c>
       <c r="I17" s="12" t="s">
@@ -11472,13 +11394,10 @@
       <c r="J17" s="12" t="s">
         <v>135</v>
       </c>
-      <c r="K17" s="55" t="s">
+      <c r="K17" s="61" t="s">
         <v>467</v>
       </c>
-      <c r="L17" s="56" t="s">
-        <v>486</v>
-      </c>
-      <c r="M17" s="53" t="s">
+      <c r="M17" s="59" t="s">
         <v>464</v>
       </c>
     </row>
@@ -11498,13 +11417,13 @@
       <c r="E18" s="12" t="s">
         <v>136</v>
       </c>
-      <c r="F18" s="55" t="s">
+      <c r="F18" s="61" t="s">
         <v>465</v>
       </c>
-      <c r="G18" s="53" t="s">
+      <c r="G18" s="59" t="s">
         <v>466</v>
       </c>
-      <c r="H18" s="53" t="s">
+      <c r="H18" s="59" t="s">
         <v>466</v>
       </c>
       <c r="I18" s="12" t="s">
@@ -11513,13 +11432,10 @@
       <c r="J18" s="12" t="s">
         <v>135</v>
       </c>
-      <c r="K18" s="55" t="s">
+      <c r="K18" s="61" t="s">
         <v>467</v>
       </c>
-      <c r="L18" s="56" t="s">
-        <v>487</v>
-      </c>
-      <c r="M18" s="53" t="s">
+      <c r="M18" s="59" t="s">
         <v>464</v>
       </c>
     </row>
@@ -11539,13 +11455,13 @@
       <c r="E19" s="12" t="s">
         <v>137</v>
       </c>
-      <c r="F19" s="55" t="s">
+      <c r="F19" s="61" t="s">
         <v>465</v>
       </c>
-      <c r="G19" s="53" t="s">
+      <c r="G19" s="59" t="s">
         <v>466</v>
       </c>
-      <c r="H19" s="53" t="s">
+      <c r="H19" s="59" t="s">
         <v>466</v>
       </c>
       <c r="I19" s="12" t="s">
@@ -11554,13 +11470,10 @@
       <c r="J19" s="12" t="s">
         <v>118</v>
       </c>
-      <c r="K19" s="55" t="s">
+      <c r="K19" s="61" t="s">
         <v>467</v>
       </c>
-      <c r="L19" s="56" t="s">
-        <v>488</v>
-      </c>
-      <c r="M19" s="54" t="s">
+      <c r="M19" s="60" t="s">
         <v>464</v>
       </c>
     </row>
@@ -11580,13 +11493,13 @@
       <c r="E20" s="12" t="s">
         <v>139</v>
       </c>
-      <c r="F20" s="55" t="s">
+      <c r="F20" s="61" t="s">
         <v>465</v>
       </c>
-      <c r="G20" s="53" t="s">
+      <c r="G20" s="59" t="s">
         <v>466</v>
       </c>
-      <c r="H20" s="53" t="s">
+      <c r="H20" s="59" t="s">
         <v>466</v>
       </c>
       <c r="I20" s="12" t="s">
@@ -11595,13 +11508,10 @@
       <c r="J20" s="12" t="s">
         <v>135</v>
       </c>
-      <c r="K20" s="55" t="s">
+      <c r="K20" s="61" t="s">
         <v>467</v>
       </c>
-      <c r="L20" s="56" t="s">
-        <v>489</v>
-      </c>
-      <c r="M20" s="53" t="s">
+      <c r="M20" s="59" t="s">
         <v>464</v>
       </c>
     </row>
@@ -11621,13 +11531,13 @@
       <c r="E21" s="12" t="s">
         <v>141</v>
       </c>
-      <c r="F21" s="55" t="s">
+      <c r="F21" s="61" t="s">
         <v>465</v>
       </c>
-      <c r="G21" s="53" t="s">
+      <c r="G21" s="59" t="s">
         <v>466</v>
       </c>
-      <c r="H21" s="53" t="s">
+      <c r="H21" s="59" t="s">
         <v>466</v>
       </c>
       <c r="I21" s="12" t="s">
@@ -11636,13 +11546,10 @@
       <c r="J21" s="12" t="s">
         <v>118</v>
       </c>
-      <c r="K21" s="55" t="s">
+      <c r="K21" s="61" t="s">
         <v>467</v>
       </c>
-      <c r="L21" s="56" t="s">
-        <v>490</v>
-      </c>
-      <c r="M21" s="53" t="s">
+      <c r="M21" s="59" t="s">
         <v>464</v>
       </c>
     </row>
@@ -11662,13 +11569,13 @@
       <c r="E22" s="12" t="s">
         <v>143</v>
       </c>
-      <c r="F22" s="55" t="s">
+      <c r="F22" s="61" t="s">
         <v>465</v>
       </c>
-      <c r="G22" s="53" t="s">
+      <c r="G22" s="59" t="s">
         <v>466</v>
       </c>
-      <c r="H22" s="53" t="s">
+      <c r="H22" s="59" t="s">
         <v>466</v>
       </c>
       <c r="I22" s="12" t="s">
@@ -11677,13 +11584,10 @@
       <c r="J22" s="12" t="s">
         <v>144</v>
       </c>
-      <c r="K22" s="55" t="s">
+      <c r="K22" s="61" t="s">
         <v>467</v>
       </c>
-      <c r="L22" s="56" t="s">
-        <v>491</v>
-      </c>
-      <c r="M22" s="53" t="s">
+      <c r="M22" s="59" t="s">
         <v>464</v>
       </c>
     </row>
@@ -11691,7 +11595,7 @@
       <c r="A23" s="15">
         <v>23</v>
       </c>
-      <c r="B23" s="51">
+      <c r="B23" s="57">
         <v>100</v>
       </c>
       <c r="C23" s="14" t="s">
@@ -11703,13 +11607,13 @@
       <c r="E23" s="16" t="s">
         <v>147</v>
       </c>
-      <c r="F23" s="55" t="s">
+      <c r="F23" s="61" t="s">
         <v>468</v>
       </c>
-      <c r="G23" s="55" t="s">
+      <c r="G23" s="61" t="s">
         <v>466</v>
       </c>
-      <c r="H23" s="55" t="s">
+      <c r="H23" s="61" t="s">
         <v>469</v>
       </c>
       <c r="I23" s="16" t="s">
@@ -11718,13 +11622,10 @@
       <c r="J23" s="16" t="s">
         <v>149</v>
       </c>
-      <c r="K23" s="55" t="s">
+      <c r="K23" s="61" t="s">
         <v>467</v>
       </c>
-      <c r="L23" s="56" t="s">
-        <v>492</v>
-      </c>
-      <c r="M23" s="53" t="s">
+      <c r="M23" s="59" t="s">
         <v>464</v>
       </c>
     </row>
@@ -11744,13 +11645,13 @@
       <c r="E24" s="16" t="s">
         <v>151</v>
       </c>
-      <c r="F24" s="55" t="s">
+      <c r="F24" s="61" t="s">
         <v>470</v>
       </c>
-      <c r="G24" s="55" t="s">
+      <c r="G24" s="61" t="s">
         <v>466</v>
       </c>
-      <c r="H24" s="55" t="s">
+      <c r="H24" s="61" t="s">
         <v>469</v>
       </c>
       <c r="I24" s="16" t="s">
@@ -11759,13 +11660,10 @@
       <c r="J24" s="16" t="s">
         <v>153</v>
       </c>
-      <c r="K24" s="55" t="s">
+      <c r="K24" s="61" t="s">
         <v>467</v>
       </c>
-      <c r="L24" s="56" t="s">
-        <v>493</v>
-      </c>
-      <c r="M24" s="53" t="s">
+      <c r="M24" s="59" t="s">
         <v>464</v>
       </c>
     </row>
@@ -11785,13 +11683,13 @@
       <c r="E25" s="16" t="s">
         <v>159</v>
       </c>
-      <c r="F25" s="55" t="s">
+      <c r="F25" s="61" t="s">
         <v>468</v>
       </c>
-      <c r="G25" s="55" t="s">
+      <c r="G25" s="61" t="s">
         <v>466</v>
       </c>
-      <c r="H25" s="55" t="s">
+      <c r="H25" s="61" t="s">
         <v>469</v>
       </c>
       <c r="I25" s="16" t="s">
@@ -11800,35 +11698,65 @@
       <c r="J25" s="16" t="s">
         <v>161</v>
       </c>
-      <c r="K25" s="55" t="s">
+      <c r="K25" s="61" t="s">
         <v>467</v>
       </c>
-      <c r="L25" s="56" t="s">
-        <v>494</v>
-      </c>
-      <c r="M25" s="53" t="s">
+      <c r="M25" s="59" t="s">
         <v>464</v>
       </c>
     </row>
-    <row r="26" spans="1:13" ht="15">
-      <c r="A26" s="17"/>
-      <c r="B26" s="18"/>
-      <c r="C26" s="20"/>
+    <row r="26" spans="1:13" ht="165">
+      <c r="A26" s="15">
+        <v>28</v>
+      </c>
+      <c r="B26" s="14">
+        <v>600</v>
+      </c>
+      <c r="C26" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="D26" s="12" t="s">
+        <v>166</v>
+      </c>
+      <c r="E26" s="16" t="s">
+        <v>167</v>
+      </c>
+      <c r="F26" s="61" t="s">
+        <v>471</v>
+      </c>
+      <c r="G26" s="62" t="s">
+        <v>466</v>
+      </c>
+      <c r="H26" s="63" t="s">
+        <v>469</v>
+      </c>
+      <c r="I26" s="16" t="s">
+        <v>168</v>
+      </c>
+      <c r="J26" s="16" t="s">
+        <v>169</v>
+      </c>
+      <c r="K26" s="61" t="s">
+        <v>467</v>
+      </c>
+      <c r="M26" s="59" t="s">
+        <v>464</v>
+      </c>
     </row>
     <row r="27" spans="1:13" ht="15">
       <c r="A27" s="17"/>
       <c r="B27" s="18"/>
-      <c r="C27" s="18"/>
+      <c r="C27" s="20"/>
     </row>
     <row r="28" spans="1:13" ht="15">
       <c r="A28" s="17"/>
       <c r="B28" s="18"/>
-      <c r="C28" s="20"/>
+      <c r="C28" s="18"/>
     </row>
     <row r="29" spans="1:13" ht="15">
       <c r="A29" s="17"/>
-      <c r="B29" s="17"/>
-      <c r="C29" s="18"/>
+      <c r="B29" s="18"/>
+      <c r="C29" s="20"/>
     </row>
     <row r="30" spans="1:13" ht="15">
       <c r="A30" s="17"/>
@@ -11838,32 +11766,32 @@
     <row r="31" spans="1:13" ht="15">
       <c r="A31" s="17"/>
       <c r="B31" s="17"/>
-      <c r="C31" s="10"/>
+      <c r="C31" s="18"/>
     </row>
     <row r="32" spans="1:13" ht="15">
       <c r="A32" s="17"/>
       <c r="B32" s="17"/>
-      <c r="C32" s="18"/>
+      <c r="C32" s="10"/>
     </row>
     <row r="33" spans="1:3" ht="15">
       <c r="A33" s="17"/>
       <c r="B33" s="17"/>
-      <c r="C33" s="10"/>
+      <c r="C33" s="18"/>
     </row>
     <row r="34" spans="1:3" ht="15">
       <c r="A34" s="17"/>
       <c r="B34" s="17"/>
-      <c r="C34" s="18"/>
+      <c r="C34" s="10"/>
     </row>
     <row r="35" spans="1:3" ht="15">
       <c r="A35" s="17"/>
-      <c r="B35" s="21"/>
-      <c r="C35" s="22"/>
+      <c r="B35" s="17"/>
+      <c r="C35" s="18"/>
     </row>
     <row r="36" spans="1:3" ht="15">
       <c r="A36" s="17"/>
-      <c r="B36" s="17"/>
-      <c r="C36" s="18"/>
+      <c r="B36" s="21"/>
+      <c r="C36" s="22"/>
     </row>
     <row r="37" spans="1:3" ht="15">
       <c r="A37" s="17"/>
@@ -11872,7 +11800,7 @@
     </row>
     <row r="38" spans="1:3" ht="15">
       <c r="A38" s="17"/>
-      <c r="B38" s="18"/>
+      <c r="B38" s="17"/>
       <c r="C38" s="18"/>
     </row>
     <row r="39" spans="1:3" ht="15">
@@ -11888,39 +11816,22 @@
     <row r="41" spans="1:3" ht="15">
       <c r="A41" s="17"/>
       <c r="B41" s="18"/>
-      <c r="C41" s="24"/>
+      <c r="C41" s="18"/>
     </row>
     <row r="42" spans="1:3" ht="15">
       <c r="A42" s="17"/>
       <c r="B42" s="18"/>
-      <c r="C42" s="18"/>
+      <c r="C42" s="24"/>
+    </row>
+    <row r="43" spans="1:3" ht="15">
+      <c r="A43" s="17"/>
+      <c r="B43" s="18"/>
+      <c r="C43" s="18"/>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="L5" r:id="rId1"/>
     <hyperlink ref="L2" r:id="rId2"/>
-    <hyperlink ref="L3" r:id="rId3"/>
-    <hyperlink ref="L4" r:id="rId4"/>
-    <hyperlink ref="L6" r:id="rId5"/>
-    <hyperlink ref="L7" r:id="rId6"/>
-    <hyperlink ref="L8" r:id="rId7"/>
-    <hyperlink ref="L9" r:id="rId8"/>
-    <hyperlink ref="L10" r:id="rId9"/>
-    <hyperlink ref="L11" r:id="rId10"/>
-    <hyperlink ref="L12" r:id="rId11"/>
-    <hyperlink ref="L13" r:id="rId12"/>
-    <hyperlink ref="L14" r:id="rId13"/>
-    <hyperlink ref="L15" r:id="rId14"/>
-    <hyperlink ref="L16" r:id="rId15"/>
-    <hyperlink ref="L17" r:id="rId16"/>
-    <hyperlink ref="L18" r:id="rId17"/>
-    <hyperlink ref="L19" r:id="rId18"/>
-    <hyperlink ref="L20" r:id="rId19"/>
-    <hyperlink ref="L21" r:id="rId20"/>
-    <hyperlink ref="L22" r:id="rId21"/>
-    <hyperlink ref="L23" r:id="rId22"/>
-    <hyperlink ref="L24" r:id="rId23"/>
-    <hyperlink ref="L25" r:id="rId24"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
